--- a/Assignment_08/Q10 prototype calculation.xlsx
+++ b/Assignment_08/Q10 prototype calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandi\Stats MS\430\UIUC-STAT430-Unsupervised-Learning\Assignment_08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FE059D-3340-489E-AC55-81570F0258B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EDFD5B-5421-43B6-A192-86D598C3ED31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Objects</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Prototype 2</t>
+  </si>
+  <si>
+    <t>New Prototypes</t>
+  </si>
+  <si>
+    <t>Jacod</t>
   </si>
 </sst>
 </file>
@@ -170,11 +176,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -184,6 +187,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,16 +472,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:Q17"/>
+  <dimension ref="C4:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -489,50 +496,50 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="3" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -791,14 +798,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="3:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
@@ -819,7 +834,7 @@
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>3.7</v>
@@ -834,10 +849,62 @@
         <v>12</v>
       </c>
     </row>
+    <row r="20" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE(D10:D11)</f>
+        <v>3.4</v>
+      </c>
+      <c r="E21">
+        <f>AVERAGE(E10:E11)</f>
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(D6:D9)</f>
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(E6:E9)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C15:G15"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
